--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="6264"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="游戏物品表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>物品编号</t>
   </si>
@@ -49,103 +49,253 @@
     <t>触发效果</t>
   </si>
   <si>
-    <t>装备等级</t>
-  </si>
-  <si>
-    <t>种类</t>
+    <t>耐久度</t>
+  </si>
+  <si>
+    <t>可叠加数量</t>
   </si>
   <si>
     <t>属性</t>
   </si>
   <si>
-    <t>部位</t>
-  </si>
-  <si>
-    <t>价格</t>
+    <t>购入价格</t>
+  </si>
+  <si>
+    <t>卖出价格</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>屠龙宝刀</t>
-  </si>
-  <si>
-    <t>[{"id":5,"value":400},{"id":3,"value":200},{"id":4,"value":200}]</t>
-  </si>
-  <si>
-    <t>双手</t>
-  </si>
-  <si>
-    <t>屠龙宝刀，点击就送。</t>
-  </si>
-  <si>
-    <t>巨龙之魂</t>
-  </si>
-  <si>
-    <t>[{"id":5,"value":400},{"id":6,"value":200},{"id":4,"value":200}]</t>
-  </si>
-  <si>
-    <t>既是五大巨龙之力，亦是恶魔之魂。</t>
-  </si>
-  <si>
-    <t>无敌</t>
-  </si>
-  <si>
-    <t>坐骑</t>
-  </si>
-  <si>
-    <t>巫妖王阿尔萨斯的坐骑</t>
-  </si>
-  <si>
-    <t>红药</t>
-  </si>
-  <si>
-    <t>背包</t>
-  </si>
-  <si>
-    <t>加hp</t>
-  </si>
-  <si>
-    <t>蓝瓶</t>
-  </si>
-  <si>
-    <t>加mp</t>
-  </si>
-  <si>
-    <t>银鳞胸甲</t>
-  </si>
-  <si>
-    <t>[{"id":3,"value":200},{"id":5,"value":200},{"id":4,"value":200}]</t>
-  </si>
-  <si>
-    <t>胸部</t>
-  </si>
-  <si>
-    <t>经典护甲</t>
-  </si>
-  <si>
-    <t>霜之哀伤</t>
-  </si>
-  <si>
-    <t>霜之哀伤饿了！</t>
-  </si>
-  <si>
-    <t>暴风城披风</t>
-  </si>
-  <si>
-    <t>[{"id":3,"value":200},{"id":6,"value":200}]</t>
-  </si>
-  <si>
-    <t>披风</t>
-  </si>
-  <si>
-    <t>为暴风城而战。</t>
-  </si>
-  <si>
-    <t>松鼠小宠物</t>
-  </si>
-  <si>
-    <t>可以召唤一只可爱的小松鼠！</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>破魔刀</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":110},{"id":8,"value":150}]</t>
+  </si>
+  <si>
+    <t>增加物理攻击和法术防御</t>
+  </si>
+  <si>
+    <t>名刀.司命</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":60},{"id":12,"value":5}]</t>
+  </si>
+  <si>
+    <t>抵挡致命伤害</t>
+  </si>
+  <si>
+    <t>碎星锤</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":80},{"id":12,"value":10}]</t>
+  </si>
+  <si>
+    <t>增加物理穿透</t>
+  </si>
+  <si>
+    <t>制裁之刃</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":100},{"id":9,"value":10}]</t>
+  </si>
+  <si>
+    <t>减少敌方回血</t>
+  </si>
+  <si>
+    <t>末世</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":60},{"id":9,"value":10}]</t>
+  </si>
+  <si>
+    <t>性价比的选择，坦克克星</t>
+  </si>
+  <si>
+    <t>泣血之刃</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":100},{"id":9,"value":25}]</t>
+  </si>
+  <si>
+    <t>增加自身回血</t>
+  </si>
+  <si>
+    <t>无尽战刃</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":130},{"id":11,"value":20},{"id":13,"value":60}]</t>
+  </si>
+  <si>
+    <t>增加暴击率,和暴击效果</t>
+  </si>
+  <si>
+    <t>闪电匕首</t>
+  </si>
+  <si>
+    <t>[{"id":11,"value":15}]</t>
+  </si>
+  <si>
+    <t>物理攻击附带30%几率额外的法术攻击</t>
+  </si>
+  <si>
+    <t>暗影战斧</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":85},{"id":12,"value":15},{"id":1,"value":500}]</t>
+  </si>
+  <si>
+    <t>脆皮克星</t>
+  </si>
+  <si>
+    <t>破军</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":180}]</t>
+  </si>
+  <si>
+    <t>渴望力量吗？</t>
+  </si>
+  <si>
+    <t>圣杯</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":180},{"id":12,"value":15},{"id":15,"value":25}]</t>
+  </si>
+  <si>
+    <t>回蓝回血</t>
+  </si>
+  <si>
+    <t>虚无法杖</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":240},{"id":1,"value":300}]</t>
+  </si>
+  <si>
+    <t>专打坦克</t>
+  </si>
+  <si>
+    <t>回响之杖</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":240}]</t>
+  </si>
+  <si>
+    <t>附加伤害</t>
+  </si>
+  <si>
+    <t>博学者之怒</t>
+  </si>
+  <si>
+    <t>大幅度提升法强</t>
+  </si>
+  <si>
+    <t>痛苦面具</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":120},{"id":12,"value":5},{"id":1,"value":800}]</t>
+  </si>
+  <si>
+    <t>持续性伤害</t>
+  </si>
+  <si>
+    <t>时之预言</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":140},{"id":2,"value":500},{"id":1,"value":800}]</t>
+  </si>
+  <si>
+    <t>等级收益</t>
+  </si>
+  <si>
+    <t>贤者之书</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":400},{"id":1,"value":1600}]</t>
+  </si>
+  <si>
+    <t>渴望法力吗？</t>
+  </si>
+  <si>
+    <t>辉月</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":160},{"id":12,"value":10}]</t>
+  </si>
+  <si>
+    <t>暂时无敌</t>
+  </si>
+  <si>
+    <t>噬神之书</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":180},{"id":12,"value":10},{"id":1,"value":800}]</t>
+  </si>
+  <si>
+    <t>炙热支配者</t>
+  </si>
+  <si>
+    <t>[{"id":4,"value":160},{"id":2,"value":600},{"id":15,"value":15}]</t>
+  </si>
+  <si>
+    <t>法术护盾，回蓝</t>
+  </si>
+  <si>
+    <t>血魔之怒</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":20},{"id":1,"value":1000}]</t>
+  </si>
+  <si>
+    <t>增加护盾</t>
+  </si>
+  <si>
+    <t>不祥征兆</t>
+  </si>
+  <si>
+    <t>[{"id":7,"value":270},{"id":1,"value":1200}]</t>
+  </si>
+  <si>
+    <t>增强物理防御</t>
+  </si>
+  <si>
+    <t>反伤刺甲</t>
+  </si>
+  <si>
+    <t>[{"id":3,"value":40},{"id":7,"value":420}]</t>
+  </si>
+  <si>
+    <t>反伤敌人</t>
+  </si>
+  <si>
+    <t>魔女斗篷</t>
+  </si>
+  <si>
+    <t>[{"id":8,"value":360},{"id":1,"value":1000}]</t>
+  </si>
+  <si>
+    <t>增加法术护盾，加强法术防御</t>
+  </si>
+  <si>
+    <t>不死鸟之眼</t>
+  </si>
+  <si>
+    <t>[{"id":8,"value":240},{"id":1,"value":1200},{"id":14,"value":100}]</t>
+  </si>
+  <si>
+    <t>增加法术防御，和生命值、回血速度</t>
+  </si>
+  <si>
+    <t>贤者庇护</t>
+  </si>
+  <si>
+    <t>[{"id":8,"value":140},{"id":7,"value":140}]</t>
+  </si>
+  <si>
+    <t>死后复生</t>
   </si>
 </sst>
 </file>
@@ -154,12 +304,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,33 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,33 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,12 +409,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -321,187 +476,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,20 +672,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,32 +727,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +752,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,130 +787,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,7 +996,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1120,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1132,11 +1287,13 @@
     <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="13.7777777777778" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="75.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="32.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,39 +1321,45 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
       <c r="H2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1205,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1213,197 +1376,728 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="G3">
+        <v>1900</v>
       </c>
       <c r="H3">
-        <v>101</v>
+        <v>950</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>1003</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
+      <c r="G4">
+        <v>2100</v>
+      </c>
       <c r="H4">
-        <v>102</v>
+        <v>1050</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
+      <c r="G5">
+        <v>1800</v>
+      </c>
       <c r="H5">
-        <v>103</v>
+        <v>900</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>1005</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>2160</v>
       </c>
       <c r="H6">
-        <v>104</v>
+        <v>1080</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>1006</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
         <v>26</v>
       </c>
+      <c r="G7">
+        <v>1740</v>
+      </c>
       <c r="H7">
-        <v>105</v>
+        <v>870</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1">
-        <v>1007</v>
-      </c>
       <c r="D8">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>2140</v>
       </c>
       <c r="H8">
-        <v>106</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1070</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>1008</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
         <v>32</v>
       </c>
+      <c r="G9">
+        <v>1840</v>
+      </c>
       <c r="H9">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>1009</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>2090</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>2950</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>1800</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>2110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>2100</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>2300</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <v>2040</v>
+      </c>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>2090</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <v>2990</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>1990</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>2090</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>1950</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>2120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23">
+        <v>2180</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>1840</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25">
+        <v>2120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26">
+        <v>2100</v>
+      </c>
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="H10">
-        <v>9999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27">
+        <v>2080</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -328,10 +328,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,15 +375,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,20 +434,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -389,38 +442,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,29 +458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,13 +478,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,169 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,6 +669,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -707,51 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -760,15 +769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,13 +1279,14 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="68.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="33.7777777777778" customWidth="1"/>
   </cols>
@@ -1585,7 +1586,9 @@
       <c r="D10" s="1">
         <v>18</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>物品编号</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>死后复生</t>
+  </si>
+  <si>
+    <t>暗夜精灵</t>
+  </si>
+  <si>
+    <t>精灵小宠物</t>
+  </si>
+  <si>
+    <t>红药</t>
+  </si>
+  <si>
+    <t>恢复生命值</t>
+  </si>
+  <si>
+    <t>蓝药</t>
+  </si>
+  <si>
+    <t>恢复魔法值</t>
   </si>
 </sst>
 </file>
@@ -329,7 +347,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,13 +379,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,22 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,6 +407,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,16 +442,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +466,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,23 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,97 +496,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,85 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,36 +687,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,8 +708,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,11 +740,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,15 +787,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -777,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,130 +807,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1277,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2137,6 +2155,85 @@
       </c>
       <c r="J27" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5000</v>
+      </c>
+      <c r="H28">
+        <v>2500</v>
+      </c>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>250</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>600</v>
+      </c>
+      <c r="H30">
+        <v>300</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -93,7 +93,7 @@
     <t>碎星锤</t>
   </si>
   <si>
-    <t>[{"id":3,"value":80},{"id":12,"value":10}]</t>
+    <t>[{"id":3,"value":80},{"id":12,"value":10},{"id":5,"value":40}]</t>
   </si>
   <si>
     <t>增加物理穿透</t>
@@ -147,7 +147,7 @@
     <t>暗影战斧</t>
   </si>
   <si>
-    <t>[{"id":3,"value":85},{"id":12,"value":15},{"id":1,"value":500}]</t>
+    <t>[{"id":3,"value":85},{"id":12,"value":15},{"id":5,"value":20},{"id":1,"value":500}]</t>
   </si>
   <si>
     <t>脆皮克星</t>
@@ -174,7 +174,7 @@
     <t>虚无法杖</t>
   </si>
   <si>
-    <t>[{"id":4,"value":240},{"id":1,"value":300}]</t>
+    <t>[{"id":4,"value":240},{"id":1,"value":300},{"id":6,"value":40}]</t>
   </si>
   <si>
     <t>专打坦克</t>
@@ -234,7 +234,7 @@
     <t>噬神之书</t>
   </si>
   <si>
-    <t>[{"id":4,"value":180},{"id":12,"value":10},{"id":1,"value":800}]</t>
+    <t>[{"id":4,"value":180},{"id":12,"value":10},{"id":10,"value":25},{"id":1,"value":800}]</t>
   </si>
   <si>
     <t>炙热支配者</t>
@@ -325,8 +325,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -345,9 +345,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +376,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +445,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -390,93 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,25 +502,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,151 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,8 +708,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,27 +742,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,6 +758,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,145 +795,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1412,9 +1412,7 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1">
         <v>12</v>
       </c>
@@ -1598,9 +1596,7 @@
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="1">
         <v>18</v>
       </c>
@@ -1694,9 +1690,7 @@
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2">
-        <v>9</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="1">
         <v>21</v>
       </c>
@@ -1914,9 +1908,7 @@
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2">
-        <v>16</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="1">
         <v>28</v>
       </c>
@@ -2190,7 +2182,9 @@
       <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29"/>
+      <c r="C29">
+        <v>26</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -2216,6 +2210,9 @@
       </c>
       <c r="B30" t="s">
         <v>90</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
       </c>
       <c r="D30">
         <v>1</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -48,7 +48,7 @@
     <t>物品名称</t>
   </si>
   <si>
-    <t>触发效果</t>
+    <t>唯一被动技能</t>
   </si>
   <si>
     <t>耐久度</t>
@@ -325,8 +325,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -338,43 +338,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -390,16 +393,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,22 +453,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,37 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -496,187 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,26 +690,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +704,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,8 +741,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,21 +787,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,12 +1298,13 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="68.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="33.7777777777778" customWidth="1"/>
@@ -1348,9 +1349,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="1">
         <v>10</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
@@ -1443,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>13</v>
@@ -1475,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>14</v>
@@ -1627,7 +1626,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>19</v>
@@ -1658,9 +1657,7 @@
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="1">
         <v>20</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>22</v>
@@ -1753,7 +1750,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1">
         <v>23</v>
@@ -1785,7 +1782,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>24</v>
@@ -1877,7 +1874,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1">
         <v>27</v>
@@ -1969,7 +1966,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1">
         <v>30</v>
@@ -2031,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="C24" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>32</v>
@@ -2062,9 +2059,7 @@
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2">
-        <v>19</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="1">
         <v>33</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1">
         <v>22</v>
@@ -2182,9 +2177,7 @@
       <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29">
-        <v>26</v>
-      </c>
+      <c r="C29"/>
       <c r="D29">
         <v>1</v>
       </c>
@@ -2211,9 +2204,7 @@
       <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
+      <c r="C30"/>
       <c r="D30">
         <v>1</v>
       </c>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>物品编号</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>叠加类型</t>
   </si>
   <si>
     <t>破魔刀</t>
@@ -323,8 +326,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
@@ -338,11 +341,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,17 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,9 +391,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,52 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,14 +470,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -467,16 +477,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,19 +499,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,43 +643,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,115 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,31 +697,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -757,6 +727,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -787,6 +772,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +810,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1310,7 +1313,7 @@
     <col min="9" max="9" width="33.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,13 +1344,16 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1">
@@ -1357,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>2000</v>
@@ -1366,18 +1372,21 @@
         <v>1000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>17</v>
@@ -1389,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>1900</v>
@@ -1398,18 +1407,21 @@
         <v>950</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1">
@@ -1419,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>2100</v>
@@ -1428,18 +1440,21 @@
         <v>1050</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
@@ -1451,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>1800</v>
@@ -1460,18 +1475,21 @@
         <v>900</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -1483,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <v>2160</v>
@@ -1492,18 +1510,21 @@
         <v>1080</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1">
@@ -1513,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>1740</v>
@@ -1522,18 +1543,21 @@
         <v>870</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1">
@@ -1543,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>2140</v>
@@ -1552,18 +1576,21 @@
         <v>1070</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1">
@@ -1573,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>1840</v>
@@ -1582,18 +1609,21 @@
         <v>920</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1">
@@ -1603,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>2090</v>
@@ -1612,18 +1642,21 @@
         <v>1045</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>22</v>
@@ -1635,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1">
         <v>2950</v>
@@ -1644,18 +1677,21 @@
         <v>1475</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
@@ -1665,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1">
         <v>1800</v>
@@ -1674,18 +1710,21 @@
         <v>900</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
@@ -1695,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1">
         <v>2110</v>
@@ -1704,18 +1743,21 @@
         <v>1055</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>21</v>
@@ -1727,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1">
         <v>2100</v>
@@ -1736,18 +1778,21 @@
         <v>1050</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2">
         <v>25</v>
@@ -1759,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1">
         <v>2300</v>
@@ -1768,18 +1813,21 @@
         <v>1150</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
         <v>30</v>
@@ -1791,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1">
         <v>2040</v>
@@ -1800,18 +1848,21 @@
         <v>1020</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1">
@@ -1821,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1">
         <v>2090</v>
@@ -1830,18 +1881,21 @@
         <v>1045</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1">
@@ -1851,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="1">
         <v>2990</v>
@@ -1860,18 +1914,21 @@
         <v>1495</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
@@ -1883,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1">
         <v>1990</v>
@@ -1892,18 +1949,21 @@
         <v>995</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
@@ -1913,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <v>2090</v>
@@ -1922,18 +1982,21 @@
         <v>1045</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1">
@@ -1943,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1">
         <v>1950</v>
@@ -1952,18 +2015,21 @@
         <v>975</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <v>29</v>
@@ -1975,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1">
         <v>2120</v>
@@ -1984,18 +2050,21 @@
         <v>1060</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
@@ -2005,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1">
         <v>2180</v>
@@ -2014,18 +2083,21 @@
         <v>1090</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2">
         <v>24</v>
@@ -2037,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>1840</v>
@@ -2046,18 +2118,21 @@
         <v>920</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1">
@@ -2067,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1">
         <v>2120</v>
@@ -2076,18 +2151,21 @@
         <v>1060</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1">
@@ -2097,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" s="1">
         <v>2100</v>
@@ -2106,18 +2184,21 @@
         <v>1050</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
@@ -2129,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1">
         <v>2080</v>
@@ -2138,18 +2219,21 @@
         <v>1040</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2164,20 +2248,22 @@
         <v>2500</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29"/>
+        <v>89</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -2191,20 +2277,22 @@
         <v>250</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30"/>
+        <v>91</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -2218,10 +2306,13 @@
         <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J30">
         <v>4</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -327,8 +327,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -342,13 +342,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -356,9 +349,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,16 +378,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,23 +401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,22 +412,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,13 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -485,6 +455,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,187 +499,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,30 +690,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -727,21 +703,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -762,13 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +747,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -790,6 +770,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,133 +810,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>物品编号</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>可叠加数量</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>属性</t>
@@ -326,9 +329,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -338,13 +341,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,93 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +396,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -499,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,17 +711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,15 +731,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,7 +763,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,6 +778,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,10 +801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -810,133 +813,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1309,11 +1312,11 @@
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="16.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="68.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="33.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="11.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1344,16 +1347,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1">
@@ -1362,31 +1368,34 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
         <v>2000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>17</v>
@@ -1397,31 +1406,34 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
         <v>1900</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>950</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1">
@@ -1430,31 +1442,34 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1">
         <v>2100</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1050</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
@@ -1465,31 +1480,34 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
         <v>1800</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>900</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -1500,31 +1518,34 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
         <v>2160</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1080</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1">
@@ -1533,31 +1554,34 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
         <v>1740</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>870</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1">
@@ -1566,31 +1590,34 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1">
         <v>2140</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1070</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1">
@@ -1599,31 +1626,34 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
         <v>1840</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>920</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1">
@@ -1632,31 +1662,34 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1">
         <v>2090</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1045</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>22</v>
@@ -1667,31 +1700,34 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="1">
         <v>2950</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1475</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
@@ -1700,31 +1736,34 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1">
         <v>1800</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>900</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
@@ -1733,31 +1772,34 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1">
         <v>2110</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1055</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>21</v>
@@ -1768,31 +1810,34 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1">
         <v>2100</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1050</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2">
         <v>25</v>
@@ -1803,31 +1848,34 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
         <v>2300</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>1150</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
         <v>30</v>
@@ -1838,31 +1886,34 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1">
         <v>2040</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1020</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1">
@@ -1871,31 +1922,34 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1">
         <v>2090</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1045</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1">
@@ -1904,31 +1958,34 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1">
         <v>2990</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1495</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
@@ -1939,31 +1996,34 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1">
         <v>1990</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>995</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
@@ -1972,31 +2032,34 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1">
         <v>2090</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>1045</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1">
@@ -2005,31 +2068,34 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="1">
         <v>1950</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>975</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2">
         <v>29</v>
@@ -2040,31 +2106,34 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="1">
         <v>2120</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>1060</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
@@ -2073,31 +2142,34 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1">
         <v>2180</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>1090</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2">
         <v>24</v>
@@ -2108,31 +2180,34 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1">
         <v>1840</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>920</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="1">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1">
@@ -2141,31 +2216,34 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1">
         <v>2120</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>1060</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1">
@@ -2174,31 +2252,34 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="1">
         <v>2100</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>1050</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="1">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="1">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
@@ -2209,31 +2290,34 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1">
         <v>2080</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>1040</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2241,28 +2325,31 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="G28">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>5000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2500</v>
       </c>
-      <c r="I28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2270,28 +2357,31 @@
       <c r="E29">
         <v>99</v>
       </c>
-      <c r="G29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>500</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>250</v>
       </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2299,19 +2389,22 @@
       <c r="E30">
         <v>99</v>
       </c>
-      <c r="G30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>600</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>300</v>
       </c>
-      <c r="I30" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30">
         <v>4</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3</v>
       </c>
     </row>
